--- a/python-stu/text.xlsx
+++ b/python-stu/text.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,12 +484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 小白</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,32 +509,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>216</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,32 +554,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>216</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -599,32 +599,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>216</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -644,21 +644,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>216</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
@@ -844,12 +844,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -869,32 +869,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -914,32 +914,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1049,32 +1049,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1094,32 +1094,32 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1139,32 +1139,32 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1184,32 +1184,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1229,32 +1229,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1274,32 +1274,32 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1319,32 +1319,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1364,921 +1364,21 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
         <v>147</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/python-stu/text.xlsx
+++ b/python-stu/text.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,12 +574,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -599,32 +599,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>287</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -644,21 +644,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>287</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
@@ -754,12 +754,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -779,32 +779,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -824,32 +824,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -869,32 +869,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -914,470 +914,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>自动化学院</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>自动化</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>自动化192</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
         <v>147</v>
       </c>
     </row>

--- a/python-stu/text.xlsx
+++ b/python-stu/text.xlsx
@@ -484,12 +484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,32 +509,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>287</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,32 +554,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>287</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -599,32 +599,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -644,21 +644,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
@@ -699,22 +699,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -734,32 +734,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -779,32 +779,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>207</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -824,32 +824,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -869,32 +869,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -914,21 +914,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/python-stu/text.xlsx
+++ b/python-stu/text.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>平均分</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>总分</t>
         </is>
       </c>
@@ -522,7 +527,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>216</v>
       </c>
     </row>
@@ -567,7 +573,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>216</v>
       </c>
     </row>
@@ -612,7 +619,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>211</v>
       </c>
     </row>
@@ -657,7 +665,8 @@
           <t>88</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>188</v>
       </c>
     </row>
@@ -702,7 +711,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>169</v>
       </c>
     </row>
@@ -747,7 +757,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>147</v>
       </c>
     </row>
@@ -792,7 +803,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>147</v>
       </c>
     </row>
@@ -837,7 +849,8 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>129</v>
       </c>
     </row>
@@ -882,7 +895,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>110</v>
       </c>
     </row>
@@ -927,7 +941,8 @@
           <t>11</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>99</v>
       </c>
     </row>

--- a/python-stu/text.xlsx
+++ b/python-stu/text.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,38 +509,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
       <c r="J2" t="n">
-        <v>216</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -555,12 +559,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -570,12 +574,16 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
       <c r="J3" t="n">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -586,7 +594,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,12 +609,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -616,23 +624,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
       <c r="J4" t="n">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -647,38 +659,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
       <c r="J5" t="n">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>N8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -693,38 +709,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
       <c r="J6" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>N6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -739,38 +759,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
       <c r="J7" t="n">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>N9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -785,38 +809,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
       <c r="J8" t="n">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -831,38 +859,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
       <c r="J9" t="n">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -877,38 +909,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>N10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -923,27 +959,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>自动化192</t>
+          <t>自动化190</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
       <c r="J11" t="n">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
